--- a/data/arg2 transcript.xlsx
+++ b/data/arg2 transcript.xlsx
@@ -612,8 +612,8 @@
   <dimension ref="A1:J994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3617,7 +3617,7 @@
         <v>11</v>
       </c>
       <c r="B114" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>39</v>
@@ -3643,7 +3643,7 @@
         <v>11</v>
       </c>
       <c r="B115" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>39</v>
@@ -3669,7 +3669,7 @@
         <v>11</v>
       </c>
       <c r="B116" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>39</v>
@@ -3695,7 +3695,7 @@
         <v>11</v>
       </c>
       <c r="B117" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>39</v>
@@ -3721,7 +3721,7 @@
         <v>11</v>
       </c>
       <c r="B118" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>39</v>
@@ -3747,7 +3747,7 @@
         <v>11</v>
       </c>
       <c r="B119" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>39</v>
@@ -3773,7 +3773,7 @@
         <v>11</v>
       </c>
       <c r="B120" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>39</v>
@@ -3799,7 +3799,7 @@
         <v>11</v>
       </c>
       <c r="B121" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>39</v>
@@ -3825,7 +3825,7 @@
         <v>11</v>
       </c>
       <c r="B122" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>39</v>
@@ -3851,7 +3851,7 @@
         <v>11</v>
       </c>
       <c r="B123" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>39</v>
@@ -3877,7 +3877,7 @@
         <v>11</v>
       </c>
       <c r="B124" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>39</v>
@@ -3903,7 +3903,7 @@
         <v>11</v>
       </c>
       <c r="B125" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>39</v>
@@ -3929,7 +3929,7 @@
         <v>11</v>
       </c>
       <c r="B126" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>39</v>
@@ -3955,7 +3955,7 @@
         <v>11</v>
       </c>
       <c r="B127" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>39</v>
@@ -3981,7 +3981,7 @@
         <v>11</v>
       </c>
       <c r="B128" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>39</v>
@@ -4007,7 +4007,7 @@
         <v>11</v>
       </c>
       <c r="B129" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>39</v>
@@ -4033,7 +4033,7 @@
         <v>11</v>
       </c>
       <c r="B130" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>39</v>
@@ -4059,7 +4059,7 @@
         <v>11</v>
       </c>
       <c r="B131" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>39</v>
@@ -4085,7 +4085,7 @@
         <v>11</v>
       </c>
       <c r="B132" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>39</v>
@@ -4111,7 +4111,7 @@
         <v>11</v>
       </c>
       <c r="B133" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>39</v>
@@ -4137,7 +4137,7 @@
         <v>11</v>
       </c>
       <c r="B134" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>39</v>
@@ -4163,7 +4163,7 @@
         <v>11</v>
       </c>
       <c r="B135" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>39</v>
